--- a/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>-26,34%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,58; 9,28</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 10,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,08</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 364,84</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 7,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 556,71</t>
+          <t>-69,71; 65,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>-10,64%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,55; 12,74</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 10,23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49,06; 356,21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 0,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,27; 34,61</t>
+          <t>-60,49; 89,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>967,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>31,71%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,0; 7,74</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 6,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 6,09</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 177,97</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 1,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 61,17</t>
+          <t>-18,44; 127,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,08%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>680,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>80,39%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,37</t>
+          <t>-3,88; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,05</t>
+          <t>3,37; 10,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,84</t>
+          <t>0,38; 7,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 45,57</t>
+          <t>-29,19; 30,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>166,57; 4163,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 259,9</t>
+          <t>3,53; 206,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>-12,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2102,27%</t>
+          <t>151,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>150,05%</t>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,03</t>
+          <t>-6,85; 1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 9,74</t>
+          <t>1,53; 6,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,96</t>
+          <t>-3,69; 6,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,9; 79,77</t>
+          <t>-32,63; 9,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,71; 494,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,81; 306,29</t>
+          <t>-25,12; 71,14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>783,39%</t>
+          <t>190,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>-26,15%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,14</t>
+          <t>-13,01; -2,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,44</t>
+          <t>-1,05; 13,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,73</t>
+          <t>-9,86; -0,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 99,6</t>
+          <t>-36,69; -8,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>98,25; —</t>
+          <t>-22,26; 578,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 161,67</t>
+          <t>-46,84; -2,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-14,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>-28,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>234,75%</t>
+          <t>113,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-39,85%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,76</t>
+          <t>-20,21; -8,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,88</t>
+          <t>3,09; 12,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,42</t>
+          <t>-16,47; -5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 192,67</t>
+          <t>-36,93; -17,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,1; 622,97</t>
+          <t>27,41; 288,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 35,1</t>
+          <t>-53,99; -23,8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>214,15%</t>
+          <t>376,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,94%</t>
+          <t>-2,36%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,12</t>
+          <t>-2,59; 1,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,5</t>
+          <t>3,7; 7,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,43</t>
+          <t>-1,81; 1,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 64,04</t>
+          <t>-12,59; 5,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>72,26; 464,09</t>
+          <t>207,88; 656,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 2,31</t>
+          <t>-15,89; 14,56</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,62</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-7,77</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-29,34%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>235,02%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-24,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; -1,27</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 11,51</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; -3,1</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-47,0; -7,4</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>68,21; 467,47</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-36,35; -10,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-11,16</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-13,91</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-40,16%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>115,6%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-27,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; -5,97</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 11,09</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; -8,44</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; -23,94</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>48,61; 214,06</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-35,26; -17,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-16,89%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>296,88%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; -0,58</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 6,83</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 0,61</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; -4,82</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>210,95; 425,2</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 3,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>140,42%</t>
+          <t>115,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,28</t>
+          <t>0,89; 7,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,49</t>
+          <t>1,45; 11,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 364,84</t>
+          <t>12,94; 338,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>154,55%</t>
+          <t>197,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,74</t>
+          <t>3,57; 11,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 10,23</t>
+          <t>2,64; 10,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,06; 356,21</t>
+          <t>48,8; 432,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,14 +764,14 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>4,22</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2,11</t>
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,74</t>
+          <t>1,17; 6,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,54</t>
+          <t>2,15; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 177,97</t>
+          <t>16,69; 194,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,01</t>
+          <t>-2,97; 3,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 10,62</t>
+          <t>3,31; 11,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 30,77</t>
+          <t>-26,33; 38,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>166,57; 4163,35</t>
+          <t>156,62; 4524,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,8%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,49</t>
+          <t>-4,69; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,92</t>
+          <t>1,2; 6,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 9,61</t>
+          <t>-25,53; 22,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 494,74</t>
+          <t>16,75; 482,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -2,55</t>
+          <t>-10,49; -0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 13,51</t>
+          <t>-1,31; 13,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -8,57</t>
+          <t>-29,22; -1,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 578,34</t>
+          <t>-34,51; 562,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>-13,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-28,02%</t>
+          <t>-26,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -8,49</t>
+          <t>-19,3; -8,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 12,71</t>
+          <t>2,5; 12,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -17,81</t>
+          <t>-35,73; -17,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,41; 288,6</t>
+          <t>19,83; 262,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,0</t>
+          <t>-1,48; 2,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,43</t>
+          <t>3,66; 7,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 5,51</t>
+          <t>-7,93; 12,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>207,88; 656,79</t>
+          <t>204,34; 650,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>4,1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-26,34%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>115,52%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-26,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,92; 11,98</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,89; 7,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 11,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 2,08</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-69,71; 65,54</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>12,94; 338,26</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-69,71; 65,54</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>7,39</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>197,19%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-10,64%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,84; 10,48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>3,57; 11,21</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 10,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 2,93</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; 89,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>48,8; 432,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-60,49; 89,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,88</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1050,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>81,88%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>967,93%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,71%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,08; 6,09</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 6,09</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,17; 6,86</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 6,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 6,09</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 127,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>16,69; 194,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; 127,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>317,87%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>80,39%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>680,25%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>80,39%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,11; 6,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 7,92</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-2,97; 3,12</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 11,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 7,92</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>66,69; 1116,43</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 206,21</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-26,33; 38,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>156,62; 4524,14</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 206,21</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,83</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>160,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-5,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>151,61%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,24; 6,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 6,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-4,69; 3,18</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 6,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 6,91</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>21,18; 504,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 71,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-25,53; 22,19</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16,75; 482,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-25,12; 71,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,59</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-5,29</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,99</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>418,77%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-26,15%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-16,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>190,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-26,15%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9,07; 16,6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; -0,42</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-10,49; -0,63</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 13,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; -0,42</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>183,99; 958,63</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-46,84; -2,54</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-29,22; -1,9</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-34,51; 562,28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,84; -2,54</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-11,08</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-13,44</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-11,08</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>114,67%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-39,85%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-26,68%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>113,26%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-39,85%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,73; 12,78</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; -5,95</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-19,3; -8,47</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 12,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-16,47; -5,95</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>20,79; 268,89</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-53,99; -23,8</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-35,73; -17,75</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>19,83; 262,23</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-53,99; -23,8</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,47</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>366,97%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-2,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>2,71%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>376,09%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-2,36%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>5,18; 7,45</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 1,41</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-1,48; 2,08</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 7,16</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 1,41</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>235,76; 565,47</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; 14,56</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-7,93; 12,38</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>204,34; 650,4</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-15,89; 14,56</t>
         </is>
       </c>
     </row>
